--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -70,24 +67,24 @@
     <t>junk</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -100,33 +97,36 @@
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>product</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -163,15 +163,18 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -553,7 +559,7 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -661,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
@@ -711,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,13 +791,13 @@
         <v>42</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.6720430107526881</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6612903225806451</v>
+        <v>0.6359223300970874</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>0.5767575322812052</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L8">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="M8">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6456310679611651</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K9">
-        <v>0.4927536231884058</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6351351351351351</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>0.4854771784232365</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M10">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5798319327731093</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K11">
-        <v>0.4581967213114754</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L11">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="M11">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>661</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5636363636363636</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K12">
-        <v>0.3608562691131498</v>
+        <v>0.345565749235474</v>
       </c>
       <c r="L12">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13">
-        <v>0.3433734939759036</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M13">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4985507246376812</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>0.3174603174603174</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4457831325301205</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>0.3083333333333333</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3981042654028436</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K16">
-        <v>0.1827956989247312</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3937007874015748</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>0.1606425702811245</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3894736842105263</v>
+        <v>0.3203125</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1379,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.1498685363716039</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L18">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>970</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3359375</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1429,31 +1435,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K19">
-        <v>0.07792207792207792</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L19">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="M19">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1420</v>
+        <v>971</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2326732673267327</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1479,7 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>0.08913649025069638</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1487,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2319587628865979</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1505,7 +1535,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>149</v>
+        <v>224</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <v>0.07268007787151201</v>
+      </c>
+      <c r="L21">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>112</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1429</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1513,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1956521739130435</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1531,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1539,13 +1593,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1580459770114943</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1557,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>293</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1565,13 +1619,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1572700296735905</v>
+        <v>0.17</v>
       </c>
       <c r="C24">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1583,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>568</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1591,13 +1645,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1550632911392405</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1609,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>267</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1617,13 +1671,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1455696202531646</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1635,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1643,13 +1697,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.145</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1661,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>171</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1669,13 +1723,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1235955056179775</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1687,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>234</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1695,13 +1749,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1123348017621145</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1713,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>403</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1721,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07590759075907591</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>560</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1747,25 +1801,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07572383073496659</v>
+        <v>0.05107084019769358</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>415</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1773,25 +1827,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03934010152284264</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F32">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
